--- a/artfynd/A 55723-2022.xlsx
+++ b/artfynd/A 55723-2022.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>97309063</v>
+        <v>105911510</v>
       </c>
       <c r="B2" t="n">
-        <v>89940</v>
+        <v>57498</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,37 +696,50 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>3884</v>
+        <v>100092</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Hasselticka</t>
+          <t>Större brunfladdermus</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Dichomitus campestris</t>
+          <t>Nyctalus noctula</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Quél.) Domański &amp; Orlicz</t>
+          <t>(Schreber, 1774)</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>födosökande</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>autobox</t>
+        </is>
+      </c>
       <c r="P2" t="inlineStr">
         <is>
           <t>Finspång, Ög</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>542504.6849128271</v>
+        <v>542593.186904503</v>
       </c>
       <c r="R2" t="n">
-        <v>6507008.474239124</v>
+        <v>6507198.597062695</v>
       </c>
       <c r="S2" t="n">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -750,7 +763,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2021-06-08</t>
+          <t>2021-08-04</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -760,7 +773,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2021-08-16</t>
+          <t>2021-08-04</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -904,14 +917,14 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>97309056</v>
+        <v>97309063</v>
       </c>
       <c r="B4" t="n">
-        <v>98520</v>
+        <v>89940</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Godkänd baserat på observatörens uppgifter</t>
+          <t>Ovaliderad</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -920,21 +933,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>222498</v>
+        <v>3884</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Hasselticka</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Dichomitus campestris</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Quél.) Domański &amp; Orlicz</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -944,10 +957,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>542602.4439148868</v>
+        <v>542504.6849128271</v>
       </c>
       <c r="R4" t="n">
-        <v>6507113.996262537</v>
+        <v>6507008.474239124</v>
       </c>
       <c r="S4" t="n">
         <v>5</v>
@@ -1016,10 +1029,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>97309065</v>
+        <v>97309056</v>
       </c>
       <c r="B5" t="n">
-        <v>103813</v>
+        <v>98520</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1028,25 +1041,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>EN</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>220785</v>
+        <v>222498</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Ask</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Fraxinus excelsior</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1056,10 +1069,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>542663.5890351037</v>
+        <v>542602.4439148868</v>
       </c>
       <c r="R5" t="n">
-        <v>6506997.743800011</v>
+        <v>6507113.996262537</v>
       </c>
       <c r="S5" t="n">
         <v>5</v>
@@ -1128,7 +1141,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>97309055</v>
+        <v>97309065</v>
       </c>
       <c r="B6" t="n">
         <v>103813</v>
@@ -1168,10 +1181,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>542614.1672576661</v>
+        <v>542663.5890351037</v>
       </c>
       <c r="R6" t="n">
-        <v>6507041.892578379</v>
+        <v>6506997.743800011</v>
       </c>
       <c r="S6" t="n">
         <v>5</v>
@@ -1240,66 +1253,53 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>105911641</v>
+        <v>97309055</v>
       </c>
       <c r="B7" t="n">
-        <v>57503</v>
+        <v>103813</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Ovaliderad</t>
+          <t>Godkänd baserat på observatörens uppgifter</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>EN</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>205995</v>
+        <v>220785</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Dvärgpipistrell</t>
+          <t>Ask</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Pipistrellus pygmaeus</t>
+          <t>Fraxinus excelsior</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(W.E.Leach, 1825)</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>födosökande</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>autobox</t>
-        </is>
-      </c>
       <c r="P7" t="inlineStr">
         <is>
           <t>Finspång, Ög</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>542571.1784522765</v>
+        <v>542614.1672576661</v>
       </c>
       <c r="R7" t="n">
-        <v>6507021.67415525</v>
+        <v>6507041.892578379</v>
       </c>
       <c r="S7" t="n">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1323,7 +1323,7 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>2021-08-04</t>
+          <t>2021-06-08</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
@@ -1333,7 +1333,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2021-08-04</t>
+          <t>2021-08-16</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
@@ -1365,10 +1365,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>105908549</v>
+        <v>105911641</v>
       </c>
       <c r="B8" t="n">
-        <v>57498</v>
+        <v>57503</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1381,33 +1381,25 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>100092</v>
+        <v>205995</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Större brunfladdermus</t>
+          <t>Dvärgpipistrell</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Nyctalus noctula</t>
+          <t>Pipistrellus pygmaeus</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Schreber, 1774)</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>registreringar</t>
-        </is>
-      </c>
+          <t>(W.E.Leach, 1825)</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr">
@@ -1426,10 +1418,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>542566.8799888693</v>
+        <v>542571.1784522765</v>
       </c>
       <c r="R8" t="n">
-        <v>6507081.387940953</v>
+        <v>6507021.67415525</v>
       </c>
       <c r="S8" t="n">
         <v>50</v>
@@ -1456,7 +1448,7 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>2022-06-04</t>
+          <t>2021-08-04</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
@@ -1466,7 +1458,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2022-06-05</t>
+          <t>2021-08-04</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
@@ -1498,7 +1490,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>105911510</v>
+        <v>105908549</v>
       </c>
       <c r="B9" t="n">
         <v>57498</v>
@@ -1531,8 +1523,16 @@
           <t>(Schreber, 1774)</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>registreringar</t>
+        </is>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr">
@@ -1551,10 +1551,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>542593.186904503</v>
+        <v>542566.8799888693</v>
       </c>
       <c r="R9" t="n">
-        <v>6507198.597062695</v>
+        <v>6507081.387940953</v>
       </c>
       <c r="S9" t="n">
         <v>50</v>
@@ -1581,7 +1581,7 @@
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>2021-08-04</t>
+          <t>2022-06-04</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
@@ -1591,7 +1591,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2021-08-04</t>
+          <t>2022-06-05</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">

--- a/artfynd/A 55723-2022.xlsx
+++ b/artfynd/A 55723-2022.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>105911510</v>
+        <v>97309063</v>
       </c>
       <c r="B2" t="n">
-        <v>57498</v>
+        <v>89940</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,50 +696,37 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>100092</v>
+        <v>3884</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Större brunfladdermus</t>
+          <t>Hasselticka</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Nyctalus noctula</t>
+          <t>Dichomitus campestris</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Schreber, 1774)</t>
+          <t>(Quél.) Domański &amp; Orlicz</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>födosökande</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>autobox</t>
-        </is>
-      </c>
       <c r="P2" t="inlineStr">
         <is>
           <t>Finspång, Ög</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>542593.186904503</v>
+        <v>542504.6849128271</v>
       </c>
       <c r="R2" t="n">
-        <v>6507198.597062695</v>
+        <v>6507008.474239124</v>
       </c>
       <c r="S2" t="n">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -763,7 +750,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2021-08-04</t>
+          <t>2021-06-08</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -773,7 +760,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2021-08-04</t>
+          <t>2021-08-16</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -917,14 +904,14 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>97309063</v>
+        <v>97309056</v>
       </c>
       <c r="B4" t="n">
-        <v>89940</v>
+        <v>98520</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Ovaliderad</t>
+          <t>Godkänd baserat på observatörens uppgifter</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -933,21 +920,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>3884</v>
+        <v>222498</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Hasselticka</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Dichomitus campestris</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Quél.) Domański &amp; Orlicz</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -957,10 +944,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>542504.6849128271</v>
+        <v>542602.4439148868</v>
       </c>
       <c r="R4" t="n">
-        <v>6507008.474239124</v>
+        <v>6507113.996262537</v>
       </c>
       <c r="S4" t="n">
         <v>5</v>
@@ -1029,10 +1016,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>97309056</v>
+        <v>97309065</v>
       </c>
       <c r="B5" t="n">
-        <v>98520</v>
+        <v>103813</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1041,25 +1028,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>EN</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>222498</v>
+        <v>220785</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Ask</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Fraxinus excelsior</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1069,10 +1056,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>542602.4439148868</v>
+        <v>542663.5890351037</v>
       </c>
       <c r="R5" t="n">
-        <v>6507113.996262537</v>
+        <v>6506997.743800011</v>
       </c>
       <c r="S5" t="n">
         <v>5</v>
@@ -1141,7 +1128,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>97309065</v>
+        <v>97309055</v>
       </c>
       <c r="B6" t="n">
         <v>103813</v>
@@ -1181,10 +1168,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>542663.5890351037</v>
+        <v>542614.1672576661</v>
       </c>
       <c r="R6" t="n">
-        <v>6506997.743800011</v>
+        <v>6507041.892578379</v>
       </c>
       <c r="S6" t="n">
         <v>5</v>
@@ -1253,53 +1240,66 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>97309055</v>
+        <v>105911641</v>
       </c>
       <c r="B7" t="n">
-        <v>103813</v>
+        <v>57503</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Godkänd baserat på observatörens uppgifter</t>
+          <t>Ovaliderad</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>EN</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>220785</v>
+        <v>205995</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Ask</t>
+          <t>Dvärgpipistrell</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Fraxinus excelsior</t>
+          <t>Pipistrellus pygmaeus</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(W.E.Leach, 1825)</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>födosökande</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>autobox</t>
+        </is>
+      </c>
       <c r="P7" t="inlineStr">
         <is>
           <t>Finspång, Ög</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>542614.1672576661</v>
+        <v>542571.1784522765</v>
       </c>
       <c r="R7" t="n">
-        <v>6507041.892578379</v>
+        <v>6507021.67415525</v>
       </c>
       <c r="S7" t="n">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1323,7 +1323,7 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>2021-06-08</t>
+          <t>2021-08-04</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
@@ -1333,7 +1333,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2021-08-16</t>
+          <t>2021-08-04</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
@@ -1365,10 +1365,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>105911641</v>
+        <v>105908549</v>
       </c>
       <c r="B8" t="n">
-        <v>57503</v>
+        <v>57498</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1381,25 +1381,33 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>205995</v>
+        <v>100092</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Dvärgpipistrell</t>
+          <t>Större brunfladdermus</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Pipistrellus pygmaeus</t>
+          <t>Nyctalus noctula</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(W.E.Leach, 1825)</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
+          <t>(Schreber, 1774)</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>registreringar</t>
+        </is>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr">
@@ -1418,10 +1426,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>542571.1784522765</v>
+        <v>542566.8799888693</v>
       </c>
       <c r="R8" t="n">
-        <v>6507021.67415525</v>
+        <v>6507081.387940953</v>
       </c>
       <c r="S8" t="n">
         <v>50</v>
@@ -1448,7 +1456,7 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>2021-08-04</t>
+          <t>2022-06-04</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
@@ -1458,7 +1466,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2021-08-04</t>
+          <t>2022-06-05</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
@@ -1490,7 +1498,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>105908549</v>
+        <v>105911510</v>
       </c>
       <c r="B9" t="n">
         <v>57498</v>
@@ -1523,16 +1531,8 @@
           <t>(Schreber, 1774)</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>registreringar</t>
-        </is>
-      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr">
@@ -1551,10 +1551,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>542566.8799888693</v>
+        <v>542593.186904503</v>
       </c>
       <c r="R9" t="n">
-        <v>6507081.387940953</v>
+        <v>6507198.597062695</v>
       </c>
       <c r="S9" t="n">
         <v>50</v>
@@ -1581,7 +1581,7 @@
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>2022-06-04</t>
+          <t>2021-08-04</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
@@ -1591,7 +1591,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2022-06-05</t>
+          <t>2021-08-04</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
